--- a/CreateScripts/Anthony/Excel/Invoice.xlsx
+++ b/CreateScripts/Anthony/Excel/Invoice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony Vu\Desktop\Uni. Stuff\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE4E9EC-B4B2-4932-BDB1-1CD49EC6055E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E080DFB1-AF52-48A6-B811-933FF0DC7602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="600" windowWidth="11052" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -367,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,26 +410,133 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
-        <v>98765</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>79135</v>
+        <v>36151</v>
       </c>
       <c r="D2">
-        <v>48.98</v>
+        <v>725</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>22</v>
       </c>
       <c r="G2">
-        <v>4.55</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="H2" s="1">
-        <v>44124</v>
+        <v>43700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2506</v>
+      </c>
+      <c r="D3">
+        <v>2500</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>83.33</v>
+      </c>
+      <c r="H3" s="1">
+        <v>43503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1050</v>
+      </c>
+      <c r="D4">
+        <v>3031</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>60.62</v>
+      </c>
+      <c r="H4" s="1">
+        <v>43504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2573</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>5000</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>43543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>13497</v>
+      </c>
+      <c r="D6">
+        <v>648.42999999999995</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>64.84</v>
+      </c>
+      <c r="H6" s="1">
+        <v>43483</v>
       </c>
     </row>
   </sheetData>
